--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.000409</v>
+      </c>
+      <c r="H2">
+        <v>0.001227</v>
+      </c>
+      <c r="I2">
+        <v>0.164521319388576</v>
+      </c>
+      <c r="J2">
+        <v>0.228024530756365</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.06499350000000001</v>
-      </c>
-      <c r="H2">
-        <v>0.129987</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="N2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="O2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="P2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="Q2">
-        <v>0.0116360679435</v>
+        <v>3.7982603E-05</v>
       </c>
       <c r="R2">
-        <v>0.06981640766100002</v>
+        <v>0.000341843427</v>
       </c>
       <c r="S2">
-        <v>0.00485560647444994</v>
+        <v>0.0004950572888527564</v>
       </c>
       <c r="T2">
-        <v>0.00522711558998419</v>
+        <v>0.000700481732118988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H3">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>85.851541</v>
       </c>
       <c r="O3">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="P3">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="Q3">
-        <v>1.8599307099945</v>
+        <v>0.01170442675633333</v>
       </c>
       <c r="R3">
-        <v>11.159584259967</v>
+        <v>0.105339840807</v>
       </c>
       <c r="S3">
-        <v>0.7761291564580808</v>
+        <v>0.1525530458659203</v>
       </c>
       <c r="T3">
-        <v>0.8355118634326505</v>
+        <v>0.2158550620592328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H4">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="N4">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="O4">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="P4">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="Q4">
-        <v>0.0120077441055</v>
+        <v>9.941235800000001E-05</v>
       </c>
       <c r="R4">
-        <v>0.072046464633</v>
+        <v>0.0008947112220000001</v>
       </c>
       <c r="S4">
-        <v>0.005010702954409395</v>
+        <v>0.001295719843896419</v>
       </c>
       <c r="T4">
-        <v>0.005394078714490605</v>
+        <v>0.001833379895682056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H5">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="N5">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="O5">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="P5">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="Q5">
-        <v>0.5109652808617501</v>
+        <v>0.0007751337325000001</v>
       </c>
       <c r="R5">
-        <v>2.043861123447</v>
+        <v>0.004650802395</v>
       </c>
       <c r="S5">
-        <v>0.2132203368026377</v>
+        <v>0.01010293065248234</v>
       </c>
       <c r="T5">
-        <v>0.1530227449399449</v>
+        <v>0.009530100215712904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.000409</v>
+      </c>
+      <c r="H6">
+        <v>0.001227</v>
+      </c>
+      <c r="I6">
+        <v>0.164521319388576</v>
+      </c>
+      <c r="J6">
+        <v>0.228024530756365</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01398766666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.041963</v>
+      </c>
+      <c r="O6">
+        <v>0.000453228418671488</v>
+      </c>
+      <c r="P6">
+        <v>0.0004626995756479349</v>
+      </c>
+      <c r="Q6">
+        <v>5.720955666666667E-06</v>
+      </c>
+      <c r="R6">
+        <v>5.1488601E-05</v>
+      </c>
+      <c r="S6">
+        <v>7.456573742423114E-05</v>
+      </c>
+      <c r="T6">
+        <v>0.0001055068536182896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.002077</v>
+      </c>
+      <c r="H7">
+        <v>0.004154</v>
+      </c>
+      <c r="I7">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J7">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.06499350000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.129987</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.09286699999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.278601</v>
+      </c>
+      <c r="O7">
+        <v>0.003009076821730935</v>
+      </c>
+      <c r="P7">
+        <v>0.003071957783644885</v>
+      </c>
+      <c r="Q7">
+        <v>0.000192884759</v>
+      </c>
+      <c r="R7">
+        <v>0.001157308554</v>
+      </c>
+      <c r="S7">
+        <v>0.002514019532878178</v>
+      </c>
+      <c r="T7">
+        <v>0.002371476051525897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.002077</v>
+      </c>
+      <c r="H8">
+        <v>0.004154</v>
+      </c>
+      <c r="I8">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J8">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>28.61718033333333</v>
+      </c>
+      <c r="N8">
+        <v>85.851541</v>
+      </c>
+      <c r="O8">
+        <v>0.9272539658256183</v>
+      </c>
+      <c r="P8">
+        <v>0.9466308793322996</v>
+      </c>
+      <c r="Q8">
+        <v>0.05943788355233333</v>
+      </c>
+      <c r="R8">
+        <v>0.3566273013139999</v>
+      </c>
+      <c r="S8">
+        <v>0.7747009199596979</v>
+      </c>
+      <c r="T8">
+        <v>0.7307758172730668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.002077</v>
+      </c>
+      <c r="H9">
+        <v>0.004154</v>
+      </c>
+      <c r="I9">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J9">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.243062</v>
+      </c>
+      <c r="N9">
+        <v>0.729186</v>
+      </c>
+      <c r="O9">
+        <v>0.007875695677081898</v>
+      </c>
+      <c r="P9">
+        <v>0.00804027483183793</v>
+      </c>
+      <c r="Q9">
+        <v>0.0005048397739999999</v>
+      </c>
+      <c r="R9">
+        <v>0.003029038644</v>
+      </c>
+      <c r="S9">
+        <v>0.006579975833185479</v>
+      </c>
+      <c r="T9">
+        <v>0.006206894936155875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.002077</v>
+      </c>
+      <c r="H10">
+        <v>0.004154</v>
+      </c>
+      <c r="I10">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J10">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.02891466666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.086744</v>
-      </c>
-      <c r="O6">
-        <v>0.0007841973104221829</v>
-      </c>
-      <c r="P6">
-        <v>0.0008441973229298452</v>
-      </c>
-      <c r="Q6">
-        <v>0.001879265388</v>
-      </c>
-      <c r="R6">
-        <v>0.011275592328</v>
-      </c>
-      <c r="S6">
-        <v>0.0007841973104221829</v>
-      </c>
-      <c r="T6">
-        <v>0.0008441973229298452</v>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.8951925</v>
+      </c>
+      <c r="N10">
+        <v>3.790385</v>
+      </c>
+      <c r="O10">
+        <v>0.06140803325689756</v>
+      </c>
+      <c r="P10">
+        <v>0.04179418847656979</v>
+      </c>
+      <c r="Q10">
+        <v>0.0039363148225</v>
+      </c>
+      <c r="R10">
+        <v>0.01574525929</v>
+      </c>
+      <c r="S10">
+        <v>0.05130510260441522</v>
+      </c>
+      <c r="T10">
+        <v>0.03226408826085689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.002077</v>
+      </c>
+      <c r="H11">
+        <v>0.004154</v>
+      </c>
+      <c r="I11">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J11">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01398766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.041963</v>
+      </c>
+      <c r="O11">
+        <v>0.000453228418671488</v>
+      </c>
+      <c r="P11">
+        <v>0.0004626995756479349</v>
+      </c>
+      <c r="Q11">
+        <v>2.905238366666667E-05</v>
+      </c>
+      <c r="R11">
+        <v>0.000174314302</v>
+      </c>
+      <c r="S11">
+        <v>0.0003786626812472569</v>
+      </c>
+      <c r="T11">
+        <v>0.0003571927220296454</v>
       </c>
     </row>
   </sheetData>
